--- a/projects/res_stock_pnw.xlsx
+++ b/projects/res_stock_pnw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8295" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8295" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="510">
   <si>
     <t>type</t>
   </si>
@@ -1554,6 +1554,21 @@
   </si>
   <si>
     <t>Set Res Stock Mode - Pacific Northwest</t>
+  </si>
+  <si>
+    <t>Set Lighting</t>
+  </si>
+  <si>
+    <t>Lighting Sample Value</t>
+  </si>
+  <si>
+    <t>lighting.txt</t>
+  </si>
+  <si>
+    <t>Lighting</t>
+  </si>
+  <si>
+    <t>res_stock_reporting.lighting</t>
   </si>
 </sst>
 </file>
@@ -5751,10 +5766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z156"/>
+  <dimension ref="A1:Z159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I133" sqref="I133"/>
+    <sheetView topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10931,7 +10946,7 @@
         <v>1</v>
       </c>
       <c r="B129" s="40" t="s">
-        <v>353</v>
+        <v>505</v>
       </c>
       <c r="C129" s="40" t="s">
         <v>236</v>
@@ -10980,7 +10995,7 @@
       </c>
       <c r="H130" s="10"/>
       <c r="I130" s="10" t="s">
-        <v>355</v>
+        <v>507</v>
       </c>
       <c r="J130" s="10"/>
       <c r="K130" s="10"/>
@@ -11007,7 +11022,7 @@
       </c>
       <c r="C131" s="41"/>
       <c r="D131" s="41" t="s">
-        <v>354</v>
+        <v>506</v>
       </c>
       <c r="E131" s="41" t="s">
         <v>238</v>
@@ -11051,7 +11066,7 @@
         <v>1</v>
       </c>
       <c r="B132" s="40" t="s">
-        <v>451</v>
+        <v>353</v>
       </c>
       <c r="C132" s="40" t="s">
         <v>236</v>
@@ -11100,7 +11115,7 @@
       </c>
       <c r="H133" s="10"/>
       <c r="I133" s="10" t="s">
-        <v>456</v>
+        <v>355</v>
       </c>
       <c r="J133" s="10"/>
       <c r="K133" s="10"/>
@@ -11127,7 +11142,7 @@
       </c>
       <c r="C134" s="41"/>
       <c r="D134" s="41" t="s">
-        <v>452</v>
+        <v>354</v>
       </c>
       <c r="E134" s="41" t="s">
         <v>238</v>
@@ -11171,7 +11186,7 @@
         <v>1</v>
       </c>
       <c r="B135" s="40" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="C135" s="40" t="s">
         <v>236</v>
@@ -11220,7 +11235,7 @@
       </c>
       <c r="H136" s="10"/>
       <c r="I136" s="10" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="J136" s="10"/>
       <c r="K136" s="10"/>
@@ -11247,7 +11262,7 @@
       </c>
       <c r="C137" s="41"/>
       <c r="D137" s="41" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="E137" s="41" t="s">
         <v>238</v>
@@ -11291,7 +11306,7 @@
         <v>1</v>
       </c>
       <c r="B138" s="40" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C138" s="40" t="s">
         <v>236</v>
@@ -11340,7 +11355,7 @@
       </c>
       <c r="H139" s="10"/>
       <c r="I139" s="10" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J139" s="10"/>
       <c r="K139" s="10"/>
@@ -11367,7 +11382,7 @@
       </c>
       <c r="C140" s="41"/>
       <c r="D140" s="41" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E140" s="41" t="s">
         <v>238</v>
@@ -11411,7 +11426,7 @@
         <v>1</v>
       </c>
       <c r="B141" s="40" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="C141" s="40" t="s">
         <v>236</v>
@@ -11460,7 +11475,7 @@
       </c>
       <c r="H142" s="10"/>
       <c r="I142" s="10" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="J142" s="10"/>
       <c r="K142" s="10"/>
@@ -11487,7 +11502,7 @@
       </c>
       <c r="C143" s="41"/>
       <c r="D143" s="41" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="E143" s="41" t="s">
         <v>238</v>
@@ -11531,7 +11546,7 @@
         <v>1</v>
       </c>
       <c r="B144" s="40" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C144" s="40" t="s">
         <v>236</v>
@@ -11580,7 +11595,7 @@
       </c>
       <c r="H145" s="10"/>
       <c r="I145" s="10" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="J145" s="10"/>
       <c r="K145" s="10"/>
@@ -11607,7 +11622,7 @@
       </c>
       <c r="C146" s="41"/>
       <c r="D146" s="41" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E146" s="41" t="s">
         <v>238</v>
@@ -11651,7 +11666,7 @@
         <v>1</v>
       </c>
       <c r="B147" s="40" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="C147" s="40" t="s">
         <v>236</v>
@@ -11700,7 +11715,7 @@
       </c>
       <c r="H148" s="10"/>
       <c r="I148" s="10" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="J148" s="10"/>
       <c r="K148" s="10"/>
@@ -11727,7 +11742,7 @@
       </c>
       <c r="C149" s="41"/>
       <c r="D149" s="41" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="E149" s="41" t="s">
         <v>238</v>
@@ -11771,7 +11786,7 @@
         <v>1</v>
       </c>
       <c r="B150" s="40" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="C150" s="40" t="s">
         <v>236</v>
@@ -11820,7 +11835,7 @@
       </c>
       <c r="H151" s="10"/>
       <c r="I151" s="10" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="J151" s="10"/>
       <c r="K151" s="10"/>
@@ -11847,7 +11862,7 @@
       </c>
       <c r="C152" s="41"/>
       <c r="D152" s="41" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="E152" s="41" t="s">
         <v>238</v>
@@ -11891,7 +11906,7 @@
         <v>1</v>
       </c>
       <c r="B153" s="40" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C153" s="40" t="s">
         <v>236</v>
@@ -11940,7 +11955,7 @@
       </c>
       <c r="H154" s="10"/>
       <c r="I154" s="10" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J154" s="10"/>
       <c r="K154" s="10"/>
@@ -11967,7 +11982,7 @@
       </c>
       <c r="C155" s="41"/>
       <c r="D155" s="41" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E155" s="41" t="s">
         <v>238</v>
@@ -12006,41 +12021,161 @@
       <c r="W155" s="41"/>
       <c r="X155" s="41"/>
     </row>
-    <row r="156" spans="1:26" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="42" t="b">
+    <row r="156" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="B156" s="42" t="s">
+      <c r="B156" s="40" t="s">
+        <v>463</v>
+      </c>
+      <c r="C156" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="D156" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="E156" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F156" s="40"/>
+      <c r="G156" s="40"/>
+      <c r="H156" s="40"/>
+      <c r="I156" s="40"/>
+      <c r="J156" s="40"/>
+      <c r="K156" s="40"/>
+      <c r="L156" s="40"/>
+      <c r="M156" s="40"/>
+      <c r="N156" s="40"/>
+      <c r="O156" s="40"/>
+      <c r="P156" s="40"/>
+      <c r="Q156" s="40"/>
+      <c r="R156" s="40"/>
+      <c r="S156" s="40"/>
+      <c r="T156" s="40"/>
+      <c r="U156" s="40"/>
+      <c r="V156" s="40"/>
+      <c r="W156" s="40"/>
+      <c r="X156" s="40"/>
+    </row>
+    <row r="157" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="10"/>
+      <c r="B157" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E157" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="H157" s="10"/>
+      <c r="I157" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="J157" s="10"/>
+      <c r="K157" s="10"/>
+      <c r="L157" s="10"/>
+      <c r="M157" s="10"/>
+      <c r="N157" s="10"/>
+      <c r="O157" s="10"/>
+      <c r="P157" s="10"/>
+      <c r="Q157" s="10"/>
+      <c r="R157" s="10"/>
+      <c r="S157" s="10"/>
+      <c r="T157" s="10"/>
+      <c r="U157" s="10"/>
+      <c r="V157" s="10"/>
+      <c r="W157" s="10"/>
+      <c r="X157" s="10"/>
+      <c r="Y157" s="15"/>
+      <c r="Z157" s="15"/>
+    </row>
+    <row r="158" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="41"/>
+      <c r="B158" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C158" s="41"/>
+      <c r="D158" s="41" t="s">
+        <v>464</v>
+      </c>
+      <c r="E158" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="F158" s="41"/>
+      <c r="G158" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="H158" s="41"/>
+      <c r="I158" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="J158" s="41"/>
+      <c r="K158" s="41">
+        <v>0</v>
+      </c>
+      <c r="L158" s="41">
+        <v>1</v>
+      </c>
+      <c r="M158" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="N158" s="41">
+        <v>0.1666667</v>
+      </c>
+      <c r="O158" s="41"/>
+      <c r="P158" s="41"/>
+      <c r="Q158" s="41"/>
+      <c r="R158" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="S158" s="41"/>
+      <c r="T158" s="41"/>
+      <c r="U158" s="41"/>
+      <c r="V158" s="41"/>
+      <c r="W158" s="41"/>
+      <c r="X158" s="41"/>
+    </row>
+    <row r="159" spans="1:26" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="B159" s="42" t="s">
         <v>329</v>
       </c>
-      <c r="C156" s="42" t="s">
+      <c r="C159" s="42" t="s">
         <v>330</v>
       </c>
-      <c r="D156" s="42" t="s">
+      <c r="D159" s="42" t="s">
         <v>330</v>
       </c>
-      <c r="E156" s="42" t="s">
+      <c r="E159" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="F156" s="42"/>
-      <c r="G156" s="42"/>
-      <c r="H156" s="43"/>
-      <c r="I156" s="43"/>
-      <c r="J156" s="42"/>
-      <c r="K156" s="42"/>
-      <c r="L156" s="42"/>
-      <c r="M156" s="42"/>
-      <c r="N156" s="42"/>
-      <c r="O156" s="42"/>
-      <c r="P156" s="42"/>
-      <c r="Q156" s="42"/>
-      <c r="R156" s="42"/>
-      <c r="S156" s="42"/>
-      <c r="T156" s="42"/>
-      <c r="U156" s="42"/>
-      <c r="V156" s="42"/>
-      <c r="W156" s="42"/>
-      <c r="X156" s="42"/>
+      <c r="F159" s="42"/>
+      <c r="G159" s="42"/>
+      <c r="H159" s="43"/>
+      <c r="I159" s="43"/>
+      <c r="J159" s="42"/>
+      <c r="K159" s="42"/>
+      <c r="L159" s="42"/>
+      <c r="M159" s="42"/>
+      <c r="N159" s="42"/>
+      <c r="O159" s="42"/>
+      <c r="P159" s="42"/>
+      <c r="Q159" s="42"/>
+      <c r="R159" s="42"/>
+      <c r="S159" s="42"/>
+      <c r="T159" s="42"/>
+      <c r="U159" s="42"/>
+      <c r="V159" s="42"/>
+      <c r="W159" s="42"/>
+      <c r="X159" s="42"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA3"/>
@@ -12059,11 +12194,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13146,13 +13281,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
-        <v>397</v>
+        <v>508</v>
       </c>
       <c r="B45" s="21"/>
       <c r="D45" s="15" t="s">
-        <v>430</v>
+        <v>509</v>
       </c>
       <c r="F45" s="15" t="s">
         <v>331</v>
@@ -13169,13 +13304,12 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
-        <v>472</v>
+        <v>397</v>
       </c>
       <c r="B46" s="21"/>
       <c r="D46" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="E46" s="22"/>
+        <v>430</v>
+      </c>
       <c r="F46" s="15" t="s">
         <v>331</v>
       </c>
@@ -13191,11 +13325,11 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B47" s="21"/>
       <c r="D47" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="15" t="s">
@@ -13213,11 +13347,11 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B48" s="21"/>
       <c r="D48" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="15" t="s">
@@ -13235,11 +13369,11 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B49" s="21"/>
       <c r="D49" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E49" s="22"/>
       <c r="F49" s="15" t="s">
@@ -13257,11 +13391,11 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B50" s="21"/>
       <c r="D50" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="15" t="s">
@@ -13279,11 +13413,11 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B51" s="21"/>
       <c r="D51" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="15" t="s">
@@ -13301,11 +13435,11 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B52" s="21"/>
       <c r="D52" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="15" t="s">
@@ -13323,11 +13457,11 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B53" s="21"/>
       <c r="D53" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E53" s="22"/>
       <c r="F53" s="15" t="s">
@@ -13344,7 +13478,26 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="44" t="s">
+        <v>482</v>
+      </c>
       <c r="B54" s="21"/>
+      <c r="D54" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="E54" s="22"/>
+      <c r="F54" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="G54" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" s="15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" s="21"/>
@@ -13405,6 +13558,9 @@
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="21"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/projects/res_stock_pnw.xlsx
+++ b/projects/res_stock_pnw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8295" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8295" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,11 +30,6 @@
     <definedName name="Workflow">Lookups!$E$14:$E$15</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -713,9 +708,6 @@
     <t>(TRUE/FALSE) If in_measure_combinations are TRUE, sets if static values be included in combinations</t>
   </si>
   <si>
-    <t>1.14.10</t>
-  </si>
-  <si>
     <t>uniform</t>
   </si>
   <si>
@@ -1569,6 +1561,9 @@
   </si>
   <si>
     <t>res_stock_reporting.lighting</t>
+  </si>
+  <si>
+    <t>1.15.7-resstock</t>
   </si>
 </sst>
 </file>
@@ -3239,7 +3234,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3329,6 +3324,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1503">
@@ -5135,8 +5136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5180,45 +5181,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>224</v>
+      <c r="B5" s="46" t="s">
+        <v>509</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>136</v>
+      <c r="B7" s="47" t="s">
+        <v>138</v>
       </c>
       <c r="C7" s="23" t="str">
         <f>VLOOKUP($B7,instance_defs,5,FALSE)</f>
@@ -5226,17 +5227,17 @@
       </c>
       <c r="D7" s="23" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
-        <v>4 Cores with 40 GB</v>
+        <v>8 Cores with 80 GB</v>
       </c>
       <c r="E7" s="23" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
-        <v>$0.28/hour</v>
+        <v>$0.56/hour</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -5259,12 +5260,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="23" t="s">
@@ -5272,7 +5273,7 @@
       </c>
       <c r="E9" s="23" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$0.28/hour</v>
+        <v>$5.6/hour</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>202</v>
@@ -5307,7 +5308,7 @@
         <v>36</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>77</v>
@@ -5318,7 +5319,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>156</v>
@@ -5329,7 +5330,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>156</v>
@@ -5427,14 +5428,14 @@
       </c>
       <c r="B24" s="17">
         <f>IF(D24&lt;&gt;"",D24,IF(LEN(INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1))=0,"",INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-1)))</f>
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C24" s="24" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)))=0,"",INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B20,Lookups!$A$19:$A$29,0)))</f>
         <v>positive integer (if individual, total simulations is this times each variable)</v>
       </c>
       <c r="D24" s="26">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="E24" s="22"/>
     </row>
@@ -5642,7 +5643,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5668,13 +5669,13 @@
         <v>29</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>58</v>
@@ -5756,11 +5757,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5768,7 +5764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z159"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
@@ -5952,13 +5948,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>41</v>
@@ -5990,18 +5986,18 @@
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
@@ -6026,13 +6022,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>41</v>
@@ -6064,18 +6060,18 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -6102,10 +6098,10 @@
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="41" t="s">
@@ -6132,7 +6128,7 @@
       <c r="P8" s="41"/>
       <c r="Q8" s="41"/>
       <c r="R8" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S8" s="41"/>
       <c r="T8" s="41"/>
@@ -6146,13 +6142,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E9" s="40" t="s">
         <v>41</v>
@@ -6184,18 +6180,18 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -6222,10 +6218,10 @@
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="41" t="s">
@@ -6252,7 +6248,7 @@
       <c r="P11" s="41"/>
       <c r="Q11" s="41"/>
       <c r="R11" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S11" s="41"/>
       <c r="T11" s="41"/>
@@ -6266,13 +6262,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E12" s="40" t="s">
         <v>41</v>
@@ -6304,18 +6300,18 @@
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -6342,10 +6338,10 @@
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="41" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="41" t="s">
@@ -6372,7 +6368,7 @@
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
       <c r="R14" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S14" s="41"/>
       <c r="T14" s="41"/>
@@ -6386,13 +6382,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E15" s="40" t="s">
         <v>41</v>
@@ -6424,18 +6420,18 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -6462,10 +6458,10 @@
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F17" s="41"/>
       <c r="G17" s="41" t="s">
@@ -6492,7 +6488,7 @@
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
       <c r="R17" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S17" s="41"/>
       <c r="T17" s="41"/>
@@ -6506,13 +6502,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E18" s="40" t="s">
         <v>41</v>
@@ -6544,18 +6540,18 @@
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -6582,10 +6578,10 @@
       </c>
       <c r="C20" s="41"/>
       <c r="D20" s="41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="41" t="s">
@@ -6612,7 +6608,7 @@
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
       <c r="R20" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S20" s="41"/>
       <c r="T20" s="41"/>
@@ -6626,13 +6622,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E21" s="40" t="s">
         <v>41</v>
@@ -6664,18 +6660,18 @@
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -6702,10 +6698,10 @@
       </c>
       <c r="C23" s="41"/>
       <c r="D23" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F23" s="41"/>
       <c r="G23" s="41" t="s">
@@ -6732,7 +6728,7 @@
       <c r="P23" s="41"/>
       <c r="Q23" s="41"/>
       <c r="R23" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S23" s="41"/>
       <c r="T23" s="41"/>
@@ -6746,13 +6742,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>41</v>
@@ -6784,18 +6780,18 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -6822,10 +6818,10 @@
       </c>
       <c r="C26" s="41"/>
       <c r="D26" s="41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="41" t="s">
@@ -6852,7 +6848,7 @@
       <c r="P26" s="41"/>
       <c r="Q26" s="41"/>
       <c r="R26" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S26" s="41"/>
       <c r="T26" s="41"/>
@@ -6866,13 +6862,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E27" s="40" t="s">
         <v>41</v>
@@ -6904,18 +6900,18 @@
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -6942,10 +6938,10 @@
       </c>
       <c r="C29" s="41"/>
       <c r="D29" s="41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F29" s="41"/>
       <c r="G29" s="41" t="s">
@@ -6972,7 +6968,7 @@
       <c r="P29" s="41"/>
       <c r="Q29" s="41"/>
       <c r="R29" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S29" s="41"/>
       <c r="T29" s="41"/>
@@ -6986,13 +6982,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E30" s="40" t="s">
         <v>41</v>
@@ -7024,18 +7020,18 @@
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -7062,10 +7058,10 @@
       </c>
       <c r="C32" s="41"/>
       <c r="D32" s="41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F32" s="41"/>
       <c r="G32" s="41" t="s">
@@ -7092,7 +7088,7 @@
       <c r="P32" s="41"/>
       <c r="Q32" s="41"/>
       <c r="R32" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S32" s="41"/>
       <c r="T32" s="41"/>
@@ -7106,13 +7102,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E33" s="40" t="s">
         <v>41</v>
@@ -7144,18 +7140,18 @@
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
@@ -7182,10 +7178,10 @@
       </c>
       <c r="C35" s="41"/>
       <c r="D35" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F35" s="41"/>
       <c r="G35" s="41" t="s">
@@ -7212,7 +7208,7 @@
       <c r="P35" s="41"/>
       <c r="Q35" s="41"/>
       <c r="R35" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S35" s="41"/>
       <c r="T35" s="41"/>
@@ -7226,13 +7222,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E36" s="40" t="s">
         <v>41</v>
@@ -7264,18 +7260,18 @@
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
@@ -7302,10 +7298,10 @@
       </c>
       <c r="C38" s="41"/>
       <c r="D38" s="41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E38" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F38" s="41"/>
       <c r="G38" s="41" t="s">
@@ -7332,7 +7328,7 @@
       <c r="P38" s="41"/>
       <c r="Q38" s="41"/>
       <c r="R38" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S38" s="41"/>
       <c r="T38" s="41"/>
@@ -7346,13 +7342,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E39" s="40" t="s">
         <v>41</v>
@@ -7384,18 +7380,18 @@
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H40" s="10"/>
       <c r="I40" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
@@ -7422,10 +7418,10 @@
       </c>
       <c r="C41" s="41"/>
       <c r="D41" s="41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E41" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F41" s="41"/>
       <c r="G41" s="41" t="s">
@@ -7452,7 +7448,7 @@
       <c r="P41" s="41"/>
       <c r="Q41" s="41"/>
       <c r="R41" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S41" s="41"/>
       <c r="T41" s="41"/>
@@ -7466,13 +7462,13 @@
         <v>1</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E42" s="40" t="s">
         <v>41</v>
@@ -7504,18 +7500,18 @@
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H43" s="10"/>
       <c r="I43" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
@@ -7542,10 +7538,10 @@
       </c>
       <c r="C44" s="41"/>
       <c r="D44" s="41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E44" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F44" s="41"/>
       <c r="G44" s="41" t="s">
@@ -7572,7 +7568,7 @@
       <c r="P44" s="41"/>
       <c r="Q44" s="41"/>
       <c r="R44" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S44" s="41"/>
       <c r="T44" s="41"/>
@@ -7586,13 +7582,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E45" s="40" t="s">
         <v>41</v>
@@ -7624,18 +7620,18 @@
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H46" s="10"/>
       <c r="I46" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
@@ -7662,10 +7658,10 @@
       </c>
       <c r="C47" s="41"/>
       <c r="D47" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E47" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F47" s="41"/>
       <c r="G47" s="41" t="s">
@@ -7692,7 +7688,7 @@
       <c r="P47" s="41"/>
       <c r="Q47" s="41"/>
       <c r="R47" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S47" s="41"/>
       <c r="T47" s="41"/>
@@ -7706,13 +7702,13 @@
         <v>1</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E48" s="40" t="s">
         <v>41</v>
@@ -7744,18 +7740,18 @@
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
@@ -7782,10 +7778,10 @@
       </c>
       <c r="C50" s="41"/>
       <c r="D50" s="41" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E50" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F50" s="41"/>
       <c r="G50" s="41" t="s">
@@ -7812,7 +7808,7 @@
       <c r="P50" s="41"/>
       <c r="Q50" s="41"/>
       <c r="R50" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S50" s="41"/>
       <c r="T50" s="41"/>
@@ -7826,13 +7822,13 @@
         <v>1</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E51" s="40" t="s">
         <v>41</v>
@@ -7864,18 +7860,18 @@
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H52" s="10"/>
       <c r="I52" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
@@ -7902,10 +7898,10 @@
       </c>
       <c r="C53" s="41"/>
       <c r="D53" s="41" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E53" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F53" s="41"/>
       <c r="G53" s="41" t="s">
@@ -7932,7 +7928,7 @@
       <c r="P53" s="41"/>
       <c r="Q53" s="41"/>
       <c r="R53" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S53" s="41"/>
       <c r="T53" s="41"/>
@@ -7946,13 +7942,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E54" s="40" t="s">
         <v>41</v>
@@ -7984,18 +7980,18 @@
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H55" s="10"/>
       <c r="I55" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
@@ -8022,10 +8018,10 @@
       </c>
       <c r="C56" s="41"/>
       <c r="D56" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E56" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F56" s="41"/>
       <c r="G56" s="41" t="s">
@@ -8052,7 +8048,7 @@
       <c r="P56" s="41"/>
       <c r="Q56" s="41"/>
       <c r="R56" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S56" s="41"/>
       <c r="T56" s="41"/>
@@ -8066,13 +8062,13 @@
         <v>1</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E57" s="40" t="s">
         <v>41</v>
@@ -8104,18 +8100,18 @@
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H58" s="10"/>
       <c r="I58" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
@@ -8142,10 +8138,10 @@
       </c>
       <c r="C59" s="41"/>
       <c r="D59" s="41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E59" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F59" s="41"/>
       <c r="G59" s="41" t="s">
@@ -8172,7 +8168,7 @@
       <c r="P59" s="41"/>
       <c r="Q59" s="41"/>
       <c r="R59" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S59" s="41"/>
       <c r="T59" s="41"/>
@@ -8186,13 +8182,13 @@
         <v>1</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E60" s="40" t="s">
         <v>41</v>
@@ -8224,18 +8220,18 @@
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H61" s="10"/>
       <c r="I61" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
@@ -8262,10 +8258,10 @@
       </c>
       <c r="C62" s="41"/>
       <c r="D62" s="41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E62" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F62" s="41"/>
       <c r="G62" s="41" t="s">
@@ -8292,7 +8288,7 @@
       <c r="P62" s="41"/>
       <c r="Q62" s="41"/>
       <c r="R62" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S62" s="41"/>
       <c r="T62" s="41"/>
@@ -8306,13 +8302,13 @@
         <v>1</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E63" s="40" t="s">
         <v>41</v>
@@ -8344,18 +8340,18 @@
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H64" s="10"/>
       <c r="I64" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
@@ -8382,10 +8378,10 @@
       </c>
       <c r="C65" s="41"/>
       <c r="D65" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E65" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F65" s="41"/>
       <c r="G65" s="41" t="s">
@@ -8412,7 +8408,7 @@
       <c r="P65" s="41"/>
       <c r="Q65" s="41"/>
       <c r="R65" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S65" s="41"/>
       <c r="T65" s="41"/>
@@ -8426,13 +8422,13 @@
         <v>1</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E66" s="40" t="s">
         <v>41</v>
@@ -8464,18 +8460,18 @@
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H67" s="10"/>
       <c r="I67" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
@@ -8502,10 +8498,10 @@
       </c>
       <c r="C68" s="41"/>
       <c r="D68" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E68" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F68" s="41"/>
       <c r="G68" s="41" t="s">
@@ -8532,7 +8528,7 @@
       <c r="P68" s="41"/>
       <c r="Q68" s="41"/>
       <c r="R68" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S68" s="41"/>
       <c r="T68" s="41"/>
@@ -8546,13 +8542,13 @@
         <v>1</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E69" s="40" t="s">
         <v>41</v>
@@ -8584,18 +8580,18 @@
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H70" s="10"/>
       <c r="I70" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
@@ -8622,10 +8618,10 @@
       </c>
       <c r="C71" s="41"/>
       <c r="D71" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E71" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F71" s="41"/>
       <c r="G71" s="41" t="s">
@@ -8652,7 +8648,7 @@
       <c r="P71" s="41"/>
       <c r="Q71" s="41"/>
       <c r="R71" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S71" s="41"/>
       <c r="T71" s="41"/>
@@ -8666,13 +8662,13 @@
         <v>1</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E72" s="40" t="s">
         <v>41</v>
@@ -8704,18 +8700,18 @@
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H73" s="10"/>
       <c r="I73" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
@@ -8742,10 +8738,10 @@
       </c>
       <c r="C74" s="41"/>
       <c r="D74" s="41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F74" s="41"/>
       <c r="G74" s="41" t="s">
@@ -8772,7 +8768,7 @@
       <c r="P74" s="41"/>
       <c r="Q74" s="41"/>
       <c r="R74" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S74" s="41"/>
       <c r="T74" s="41"/>
@@ -8786,13 +8782,13 @@
         <v>1</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E75" s="40" t="s">
         <v>41</v>
@@ -8824,18 +8820,18 @@
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H76" s="10"/>
       <c r="I76" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J76" s="10"/>
       <c r="K76" s="10"/>
@@ -8862,10 +8858,10 @@
       </c>
       <c r="C77" s="41"/>
       <c r="D77" s="41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E77" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F77" s="41"/>
       <c r="G77" s="41" t="s">
@@ -8892,7 +8888,7 @@
       <c r="P77" s="41"/>
       <c r="Q77" s="41"/>
       <c r="R77" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S77" s="41"/>
       <c r="T77" s="41"/>
@@ -8906,13 +8902,13 @@
         <v>1</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E78" s="40" t="s">
         <v>41</v>
@@ -8944,18 +8940,18 @@
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H79" s="10"/>
       <c r="I79" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J79" s="10"/>
       <c r="K79" s="10"/>
@@ -8982,10 +8978,10 @@
       </c>
       <c r="C80" s="41"/>
       <c r="D80" s="41" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E80" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F80" s="41"/>
       <c r="G80" s="41" t="s">
@@ -9012,7 +9008,7 @@
       <c r="P80" s="41"/>
       <c r="Q80" s="41"/>
       <c r="R80" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S80" s="41"/>
       <c r="T80" s="41"/>
@@ -9026,13 +9022,13 @@
         <v>1</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E81" s="40" t="s">
         <v>41</v>
@@ -9064,18 +9060,18 @@
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H82" s="10"/>
       <c r="I82" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
@@ -9102,10 +9098,10 @@
       </c>
       <c r="C83" s="41"/>
       <c r="D83" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E83" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F83" s="41"/>
       <c r="G83" s="41" t="s">
@@ -9132,7 +9128,7 @@
       <c r="P83" s="41"/>
       <c r="Q83" s="41"/>
       <c r="R83" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S83" s="41"/>
       <c r="T83" s="41"/>
@@ -9146,13 +9142,13 @@
         <v>1</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E84" s="40" t="s">
         <v>41</v>
@@ -9184,18 +9180,18 @@
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H85" s="10"/>
       <c r="I85" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
@@ -9222,10 +9218,10 @@
       </c>
       <c r="C86" s="41"/>
       <c r="D86" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E86" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F86" s="41"/>
       <c r="G86" s="41" t="s">
@@ -9252,7 +9248,7 @@
       <c r="P86" s="41"/>
       <c r="Q86" s="41"/>
       <c r="R86" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S86" s="41"/>
       <c r="T86" s="41"/>
@@ -9266,13 +9262,13 @@
         <v>1</v>
       </c>
       <c r="B87" s="40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E87" s="40" t="s">
         <v>41</v>
@@ -9304,18 +9300,18 @@
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H88" s="10"/>
       <c r="I88" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
@@ -9342,10 +9338,10 @@
       </c>
       <c r="C89" s="41"/>
       <c r="D89" s="41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E89" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F89" s="41"/>
       <c r="G89" s="41" t="s">
@@ -9372,7 +9368,7 @@
       <c r="P89" s="41"/>
       <c r="Q89" s="41"/>
       <c r="R89" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S89" s="41"/>
       <c r="T89" s="41"/>
@@ -9386,13 +9382,13 @@
         <v>1</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E90" s="40" t="s">
         <v>41</v>
@@ -9424,18 +9420,18 @@
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H91" s="10"/>
       <c r="I91" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
@@ -9462,10 +9458,10 @@
       </c>
       <c r="C92" s="41"/>
       <c r="D92" s="41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E92" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F92" s="41"/>
       <c r="G92" s="41" t="s">
@@ -9492,7 +9488,7 @@
       <c r="P92" s="41"/>
       <c r="Q92" s="41"/>
       <c r="R92" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S92" s="41"/>
       <c r="T92" s="41"/>
@@ -9506,13 +9502,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E93" s="40" t="s">
         <v>41</v>
@@ -9544,18 +9540,18 @@
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F94" s="10"/>
       <c r="G94" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H94" s="10"/>
       <c r="I94" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
@@ -9582,10 +9578,10 @@
       </c>
       <c r="C95" s="41"/>
       <c r="D95" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E95" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F95" s="41"/>
       <c r="G95" s="41" t="s">
@@ -9612,7 +9608,7 @@
       <c r="P95" s="41"/>
       <c r="Q95" s="41"/>
       <c r="R95" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S95" s="41"/>
       <c r="T95" s="41"/>
@@ -9626,13 +9622,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E96" s="40" t="s">
         <v>41</v>
@@ -9664,18 +9660,18 @@
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H97" s="10"/>
       <c r="I97" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J97" s="10"/>
       <c r="K97" s="10"/>
@@ -9702,10 +9698,10 @@
       </c>
       <c r="C98" s="41"/>
       <c r="D98" s="41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E98" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F98" s="41"/>
       <c r="G98" s="41" t="s">
@@ -9732,7 +9728,7 @@
       <c r="P98" s="41"/>
       <c r="Q98" s="41"/>
       <c r="R98" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S98" s="41"/>
       <c r="T98" s="41"/>
@@ -9746,13 +9742,13 @@
         <v>1</v>
       </c>
       <c r="B99" s="40" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C99" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E99" s="40" t="s">
         <v>41</v>
@@ -9784,18 +9780,18 @@
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H100" s="10"/>
       <c r="I100" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
@@ -9822,10 +9818,10 @@
       </c>
       <c r="C101" s="41"/>
       <c r="D101" s="41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E101" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F101" s="41"/>
       <c r="G101" s="41" t="s">
@@ -9852,7 +9848,7 @@
       <c r="P101" s="41"/>
       <c r="Q101" s="41"/>
       <c r="R101" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S101" s="41"/>
       <c r="T101" s="41"/>
@@ -9866,13 +9862,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E102" s="40" t="s">
         <v>41</v>
@@ -9904,18 +9900,18 @@
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H103" s="10"/>
       <c r="I103" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J103" s="10"/>
       <c r="K103" s="10"/>
@@ -9942,10 +9938,10 @@
       </c>
       <c r="C104" s="41"/>
       <c r="D104" s="41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E104" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F104" s="41"/>
       <c r="G104" s="41" t="s">
@@ -9972,7 +9968,7 @@
       <c r="P104" s="41"/>
       <c r="Q104" s="41"/>
       <c r="R104" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S104" s="41"/>
       <c r="T104" s="41"/>
@@ -9986,13 +9982,13 @@
         <v>1</v>
       </c>
       <c r="B105" s="40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C105" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E105" s="40" t="s">
         <v>41</v>
@@ -10024,18 +10020,18 @@
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F106" s="10"/>
       <c r="G106" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H106" s="10"/>
       <c r="I106" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
@@ -10062,10 +10058,10 @@
       </c>
       <c r="C107" s="41"/>
       <c r="D107" s="41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E107" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F107" s="41"/>
       <c r="G107" s="41" t="s">
@@ -10092,7 +10088,7 @@
       <c r="P107" s="41"/>
       <c r="Q107" s="41"/>
       <c r="R107" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S107" s="41"/>
       <c r="T107" s="41"/>
@@ -10106,13 +10102,13 @@
         <v>1</v>
       </c>
       <c r="B108" s="40" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E108" s="40" t="s">
         <v>41</v>
@@ -10144,18 +10140,18 @@
       </c>
       <c r="C109" s="10"/>
       <c r="D109" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F109" s="10"/>
       <c r="G109" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H109" s="10"/>
       <c r="I109" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J109" s="10"/>
       <c r="K109" s="10"/>
@@ -10182,10 +10178,10 @@
       </c>
       <c r="C110" s="41"/>
       <c r="D110" s="41" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E110" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F110" s="41"/>
       <c r="G110" s="41" t="s">
@@ -10212,7 +10208,7 @@
       <c r="P110" s="41"/>
       <c r="Q110" s="41"/>
       <c r="R110" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S110" s="41"/>
       <c r="T110" s="41"/>
@@ -10226,13 +10222,13 @@
         <v>1</v>
       </c>
       <c r="B111" s="40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E111" s="40" t="s">
         <v>41</v>
@@ -10264,18 +10260,18 @@
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F112" s="10"/>
       <c r="G112" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H112" s="10"/>
       <c r="I112" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J112" s="10"/>
       <c r="K112" s="10"/>
@@ -10302,10 +10298,10 @@
       </c>
       <c r="C113" s="41"/>
       <c r="D113" s="41" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E113" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F113" s="41"/>
       <c r="G113" s="41" t="s">
@@ -10332,7 +10328,7 @@
       <c r="P113" s="41"/>
       <c r="Q113" s="41"/>
       <c r="R113" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S113" s="41"/>
       <c r="T113" s="41"/>
@@ -10346,13 +10342,13 @@
         <v>1</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E114" s="40" t="s">
         <v>41</v>
@@ -10384,18 +10380,18 @@
       </c>
       <c r="C115" s="10"/>
       <c r="D115" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F115" s="10"/>
       <c r="G115" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H115" s="10"/>
       <c r="I115" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J115" s="10"/>
       <c r="K115" s="10"/>
@@ -10422,10 +10418,10 @@
       </c>
       <c r="C116" s="41"/>
       <c r="D116" s="41" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E116" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F116" s="41"/>
       <c r="G116" s="41" t="s">
@@ -10452,7 +10448,7 @@
       <c r="P116" s="41"/>
       <c r="Q116" s="41"/>
       <c r="R116" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S116" s="41"/>
       <c r="T116" s="41"/>
@@ -10466,13 +10462,13 @@
         <v>1</v>
       </c>
       <c r="B117" s="40" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C117" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D117" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E117" s="40" t="s">
         <v>41</v>
@@ -10504,18 +10500,18 @@
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H118" s="10"/>
       <c r="I118" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J118" s="10"/>
       <c r="K118" s="10"/>
@@ -10542,10 +10538,10 @@
       </c>
       <c r="C119" s="41"/>
       <c r="D119" s="41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E119" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F119" s="41"/>
       <c r="G119" s="41" t="s">
@@ -10572,7 +10568,7 @@
       <c r="P119" s="41"/>
       <c r="Q119" s="41"/>
       <c r="R119" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S119" s="41"/>
       <c r="T119" s="41"/>
@@ -10586,13 +10582,13 @@
         <v>1</v>
       </c>
       <c r="B120" s="40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D120" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E120" s="40" t="s">
         <v>41</v>
@@ -10624,18 +10620,18 @@
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H121" s="10"/>
       <c r="I121" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J121" s="10"/>
       <c r="K121" s="10"/>
@@ -10662,10 +10658,10 @@
       </c>
       <c r="C122" s="41"/>
       <c r="D122" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E122" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F122" s="41"/>
       <c r="G122" s="41" t="s">
@@ -10692,7 +10688,7 @@
       <c r="P122" s="41"/>
       <c r="Q122" s="41"/>
       <c r="R122" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S122" s="41"/>
       <c r="T122" s="41"/>
@@ -10706,13 +10702,13 @@
         <v>1</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C123" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D123" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E123" s="40" t="s">
         <v>41</v>
@@ -10744,18 +10740,18 @@
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H124" s="10"/>
       <c r="I124" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J124" s="10"/>
       <c r="K124" s="10"/>
@@ -10782,10 +10778,10 @@
       </c>
       <c r="C125" s="41"/>
       <c r="D125" s="41" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E125" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F125" s="41"/>
       <c r="G125" s="41" t="s">
@@ -10812,7 +10808,7 @@
       <c r="P125" s="41"/>
       <c r="Q125" s="41"/>
       <c r="R125" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S125" s="41"/>
       <c r="T125" s="41"/>
@@ -10826,13 +10822,13 @@
         <v>1</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C126" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D126" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E126" s="40" t="s">
         <v>41</v>
@@ -10864,18 +10860,18 @@
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F127" s="10"/>
       <c r="G127" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H127" s="10"/>
       <c r="I127" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J127" s="10"/>
       <c r="K127" s="10"/>
@@ -10902,10 +10898,10 @@
       </c>
       <c r="C128" s="41"/>
       <c r="D128" s="41" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E128" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F128" s="41"/>
       <c r="G128" s="41" t="s">
@@ -10932,7 +10928,7 @@
       <c r="P128" s="41"/>
       <c r="Q128" s="41"/>
       <c r="R128" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S128" s="41"/>
       <c r="T128" s="41"/>
@@ -10946,13 +10942,13 @@
         <v>1</v>
       </c>
       <c r="B129" s="40" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C129" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D129" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E129" s="40" t="s">
         <v>41</v>
@@ -10984,18 +10980,18 @@
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F130" s="10"/>
       <c r="G130" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H130" s="10"/>
       <c r="I130" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J130" s="10"/>
       <c r="K130" s="10"/>
@@ -11022,10 +11018,10 @@
       </c>
       <c r="C131" s="41"/>
       <c r="D131" s="41" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E131" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F131" s="41"/>
       <c r="G131" s="41" t="s">
@@ -11052,7 +11048,7 @@
       <c r="P131" s="41"/>
       <c r="Q131" s="41"/>
       <c r="R131" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S131" s="41"/>
       <c r="T131" s="41"/>
@@ -11066,13 +11062,13 @@
         <v>1</v>
       </c>
       <c r="B132" s="40" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C132" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D132" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E132" s="40" t="s">
         <v>41</v>
@@ -11104,18 +11100,18 @@
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F133" s="10"/>
       <c r="G133" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H133" s="10"/>
       <c r="I133" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J133" s="10"/>
       <c r="K133" s="10"/>
@@ -11142,10 +11138,10 @@
       </c>
       <c r="C134" s="41"/>
       <c r="D134" s="41" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E134" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F134" s="41"/>
       <c r="G134" s="41" t="s">
@@ -11172,7 +11168,7 @@
       <c r="P134" s="41"/>
       <c r="Q134" s="41"/>
       <c r="R134" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S134" s="41"/>
       <c r="T134" s="41"/>
@@ -11186,13 +11182,13 @@
         <v>1</v>
       </c>
       <c r="B135" s="40" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C135" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D135" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E135" s="40" t="s">
         <v>41</v>
@@ -11224,18 +11220,18 @@
       </c>
       <c r="C136" s="10"/>
       <c r="D136" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F136" s="10"/>
       <c r="G136" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H136" s="10"/>
       <c r="I136" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J136" s="10"/>
       <c r="K136" s="10"/>
@@ -11262,10 +11258,10 @@
       </c>
       <c r="C137" s="41"/>
       <c r="D137" s="41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E137" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F137" s="41"/>
       <c r="G137" s="41" t="s">
@@ -11292,7 +11288,7 @@
       <c r="P137" s="41"/>
       <c r="Q137" s="41"/>
       <c r="R137" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S137" s="41"/>
       <c r="T137" s="41"/>
@@ -11306,13 +11302,13 @@
         <v>1</v>
       </c>
       <c r="B138" s="40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C138" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D138" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E138" s="40" t="s">
         <v>41</v>
@@ -11344,18 +11340,18 @@
       </c>
       <c r="C139" s="10"/>
       <c r="D139" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F139" s="10"/>
       <c r="G139" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H139" s="10"/>
       <c r="I139" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J139" s="10"/>
       <c r="K139" s="10"/>
@@ -11382,10 +11378,10 @@
       </c>
       <c r="C140" s="41"/>
       <c r="D140" s="41" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E140" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F140" s="41"/>
       <c r="G140" s="41" t="s">
@@ -11412,7 +11408,7 @@
       <c r="P140" s="41"/>
       <c r="Q140" s="41"/>
       <c r="R140" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S140" s="41"/>
       <c r="T140" s="41"/>
@@ -11426,13 +11422,13 @@
         <v>1</v>
       </c>
       <c r="B141" s="40" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C141" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D141" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E141" s="40" t="s">
         <v>41</v>
@@ -11464,18 +11460,18 @@
       </c>
       <c r="C142" s="10"/>
       <c r="D142" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F142" s="10"/>
       <c r="G142" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H142" s="10"/>
       <c r="I142" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J142" s="10"/>
       <c r="K142" s="10"/>
@@ -11502,10 +11498,10 @@
       </c>
       <c r="C143" s="41"/>
       <c r="D143" s="41" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E143" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F143" s="41"/>
       <c r="G143" s="41" t="s">
@@ -11532,7 +11528,7 @@
       <c r="P143" s="41"/>
       <c r="Q143" s="41"/>
       <c r="R143" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S143" s="41"/>
       <c r="T143" s="41"/>
@@ -11546,13 +11542,13 @@
         <v>1</v>
       </c>
       <c r="B144" s="40" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C144" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D144" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E144" s="40" t="s">
         <v>41</v>
@@ -11584,18 +11580,18 @@
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H145" s="10"/>
       <c r="I145" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J145" s="10"/>
       <c r="K145" s="10"/>
@@ -11622,10 +11618,10 @@
       </c>
       <c r="C146" s="41"/>
       <c r="D146" s="41" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E146" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F146" s="41"/>
       <c r="G146" s="41" t="s">
@@ -11652,7 +11648,7 @@
       <c r="P146" s="41"/>
       <c r="Q146" s="41"/>
       <c r="R146" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S146" s="41"/>
       <c r="T146" s="41"/>
@@ -11666,13 +11662,13 @@
         <v>1</v>
       </c>
       <c r="B147" s="40" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C147" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D147" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E147" s="40" t="s">
         <v>41</v>
@@ -11704,18 +11700,18 @@
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F148" s="10"/>
       <c r="G148" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H148" s="10"/>
       <c r="I148" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J148" s="10"/>
       <c r="K148" s="10"/>
@@ -11742,10 +11738,10 @@
       </c>
       <c r="C149" s="41"/>
       <c r="D149" s="41" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E149" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F149" s="41"/>
       <c r="G149" s="41" t="s">
@@ -11772,7 +11768,7 @@
       <c r="P149" s="41"/>
       <c r="Q149" s="41"/>
       <c r="R149" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S149" s="41"/>
       <c r="T149" s="41"/>
@@ -11786,13 +11782,13 @@
         <v>1</v>
       </c>
       <c r="B150" s="40" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C150" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D150" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E150" s="40" t="s">
         <v>41</v>
@@ -11824,18 +11820,18 @@
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F151" s="10"/>
       <c r="G151" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H151" s="10"/>
       <c r="I151" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J151" s="10"/>
       <c r="K151" s="10"/>
@@ -11862,10 +11858,10 @@
       </c>
       <c r="C152" s="41"/>
       <c r="D152" s="41" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E152" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F152" s="41"/>
       <c r="G152" s="41" t="s">
@@ -11892,7 +11888,7 @@
       <c r="P152" s="41"/>
       <c r="Q152" s="41"/>
       <c r="R152" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S152" s="41"/>
       <c r="T152" s="41"/>
@@ -11906,13 +11902,13 @@
         <v>1</v>
       </c>
       <c r="B153" s="40" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C153" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D153" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E153" s="40" t="s">
         <v>41</v>
@@ -11944,18 +11940,18 @@
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F154" s="10"/>
       <c r="G154" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H154" s="10"/>
       <c r="I154" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J154" s="10"/>
       <c r="K154" s="10"/>
@@ -11982,10 +11978,10 @@
       </c>
       <c r="C155" s="41"/>
       <c r="D155" s="41" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E155" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F155" s="41"/>
       <c r="G155" s="41" t="s">
@@ -12012,7 +12008,7 @@
       <c r="P155" s="41"/>
       <c r="Q155" s="41"/>
       <c r="R155" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S155" s="41"/>
       <c r="T155" s="41"/>
@@ -12026,13 +12022,13 @@
         <v>1</v>
       </c>
       <c r="B156" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C156" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D156" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E156" s="40" t="s">
         <v>41</v>
@@ -12064,18 +12060,18 @@
       </c>
       <c r="C157" s="10"/>
       <c r="D157" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F157" s="10"/>
       <c r="G157" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H157" s="10"/>
       <c r="I157" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J157" s="10"/>
       <c r="K157" s="10"/>
@@ -12102,10 +12098,10 @@
       </c>
       <c r="C158" s="41"/>
       <c r="D158" s="41" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E158" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F158" s="41"/>
       <c r="G158" s="41" t="s">
@@ -12132,7 +12128,7 @@
       <c r="P158" s="41"/>
       <c r="Q158" s="41"/>
       <c r="R158" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S158" s="41"/>
       <c r="T158" s="41"/>
@@ -12146,16 +12142,16 @@
         <v>1</v>
       </c>
       <c r="B159" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="C159" s="42" t="s">
         <v>329</v>
       </c>
-      <c r="C159" s="42" t="s">
-        <v>330</v>
-      </c>
       <c r="D159" s="42" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E159" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F159" s="42"/>
       <c r="G159" s="42"/>
@@ -12196,7 +12192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
@@ -12314,16 +12310,16 @@
     </row>
     <row r="4" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G4" s="15" t="b">
         <v>0</v>
@@ -12341,16 +12337,16 @@
     </row>
     <row r="5" spans="1:13" s="22" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G5" s="15" t="b">
         <v>0</v>
@@ -12368,16 +12364,16 @@
     </row>
     <row r="6" spans="1:13" s="22" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G6" s="15" t="b">
         <v>0</v>
@@ -12395,16 +12391,16 @@
     </row>
     <row r="7" spans="1:13" s="22" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G7" s="15" t="b">
         <v>0</v>
@@ -12422,16 +12418,16 @@
     </row>
     <row r="8" spans="1:13" s="22" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G8" s="15" t="b">
         <v>0</v>
@@ -12449,16 +12445,16 @@
     </row>
     <row r="9" spans="1:13" s="22" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G9" s="15" t="b">
         <v>0</v>
@@ -12476,16 +12472,16 @@
     </row>
     <row r="10" spans="1:13" s="22" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G10" s="15" t="b">
         <v>0</v>
@@ -12503,16 +12499,16 @@
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G11" s="15" t="b">
         <v>0</v>
@@ -12530,16 +12526,16 @@
     </row>
     <row r="12" spans="1:13" s="22" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G12" s="15" t="b">
         <v>0</v>
@@ -12557,16 +12553,16 @@
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G13" s="15" t="b">
         <v>0</v>
@@ -12584,16 +12580,16 @@
     </row>
     <row r="14" spans="1:13" s="22" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G14" s="15" t="b">
         <v>0</v>
@@ -12611,16 +12607,16 @@
     </row>
     <row r="15" spans="1:13" s="22" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G15" s="15" t="b">
         <v>0</v>
@@ -12638,16 +12634,16 @@
     </row>
     <row r="16" spans="1:13" s="22" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G16" s="15" t="b">
         <v>0</v>
@@ -12665,14 +12661,14 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B17" s="21"/>
       <c r="D17" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G17" s="15" t="b">
         <v>0</v>
@@ -12686,14 +12682,14 @@
     </row>
     <row r="18" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B18" s="21"/>
       <c r="D18" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G18" s="15" t="b">
         <v>0</v>
@@ -12707,16 +12703,16 @@
     </row>
     <row r="19" spans="1:13" s="22" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G19" s="15" t="b">
         <v>0</v>
@@ -12734,16 +12730,16 @@
     </row>
     <row r="20" spans="1:13" s="22" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G20" s="15" t="b">
         <v>0</v>
@@ -12761,16 +12757,16 @@
     </row>
     <row r="21" spans="1:13" s="22" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G21" s="15" t="b">
         <v>0</v>
@@ -12788,16 +12784,16 @@
     </row>
     <row r="22" spans="1:13" s="22" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G22" s="15" t="b">
         <v>0</v>
@@ -12815,16 +12811,16 @@
     </row>
     <row r="23" spans="1:13" s="22" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G23" s="15" t="b">
         <v>0</v>
@@ -12842,14 +12838,14 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B24" s="21"/>
       <c r="D24" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G24" s="15" t="b">
         <v>0</v>
@@ -12863,14 +12859,14 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B25" s="21"/>
       <c r="D25" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G25" s="15" t="b">
         <v>0</v>
@@ -12884,14 +12880,14 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B26" s="21"/>
       <c r="D26" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G26" s="15" t="b">
         <v>0</v>
@@ -12905,14 +12901,14 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B27" s="21"/>
       <c r="D27" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G27" s="15" t="b">
         <v>0</v>
@@ -12926,14 +12922,14 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B28" s="21"/>
       <c r="D28" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G28" s="15" t="b">
         <v>0</v>
@@ -12947,14 +12943,14 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B29" s="21"/>
       <c r="D29" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G29" s="15" t="b">
         <v>0</v>
@@ -12968,14 +12964,14 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B30" s="21"/>
       <c r="D30" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G30" s="15" t="b">
         <v>0</v>
@@ -12989,14 +12985,14 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B31" s="21"/>
       <c r="D31" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G31" s="15" t="b">
         <v>0</v>
@@ -13010,14 +13006,14 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B32" s="21"/>
       <c r="D32" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G32" s="15" t="b">
         <v>0</v>
@@ -13031,14 +13027,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B33" s="21"/>
       <c r="D33" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G33" s="15" t="b">
         <v>0</v>
@@ -13052,14 +13048,14 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B34" s="21"/>
       <c r="D34" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G34" s="15" t="b">
         <v>0</v>
@@ -13073,14 +13069,14 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B35" s="21"/>
       <c r="D35" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G35" s="15" t="b">
         <v>0</v>
@@ -13094,14 +13090,14 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B36" s="21"/>
       <c r="D36" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G36" s="15" t="b">
         <v>0</v>
@@ -13115,14 +13111,14 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B37" s="21"/>
       <c r="D37" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G37" s="15" t="b">
         <v>0</v>
@@ -13136,14 +13132,14 @@
     </row>
     <row r="38" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B38" s="21"/>
       <c r="D38" s="15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G38" s="15" t="b">
         <v>0</v>
@@ -13157,14 +13153,14 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B39" s="21"/>
       <c r="D39" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G39" s="15" t="b">
         <v>0</v>
@@ -13178,14 +13174,14 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B40" s="21"/>
       <c r="D40" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G40" s="15" t="b">
         <v>0</v>
@@ -13199,14 +13195,14 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B41" s="21"/>
       <c r="D41" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G41" s="15" t="b">
         <v>0</v>
@@ -13220,14 +13216,14 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B42" s="21"/>
       <c r="D42" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G42" s="15" t="b">
         <v>0</v>
@@ -13241,14 +13237,14 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B43" s="21"/>
       <c r="D43" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G43" s="15" t="b">
         <v>0</v>
@@ -13262,14 +13258,14 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B44" s="21"/>
       <c r="D44" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G44" s="15" t="b">
         <v>0</v>
@@ -13283,14 +13279,14 @@
     </row>
     <row r="45" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B45" s="21"/>
       <c r="D45" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G45" s="15" t="b">
         <v>0</v>
@@ -13304,14 +13300,14 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B46" s="21"/>
       <c r="D46" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G46" s="15" t="b">
         <v>0</v>
@@ -13325,15 +13321,15 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B47" s="21"/>
       <c r="D47" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G47" s="15" t="b">
         <v>0</v>
@@ -13347,15 +13343,15 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B48" s="21"/>
       <c r="D48" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G48" s="15" t="b">
         <v>0</v>
@@ -13369,15 +13365,15 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B49" s="21"/>
       <c r="D49" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E49" s="22"/>
       <c r="F49" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G49" s="15" t="b">
         <v>0</v>
@@ -13391,15 +13387,15 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B50" s="21"/>
       <c r="D50" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G50" s="15" t="b">
         <v>0</v>
@@ -13413,15 +13409,15 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B51" s="21"/>
       <c r="D51" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G51" s="15" t="b">
         <v>0</v>
@@ -13435,15 +13431,15 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B52" s="21"/>
       <c r="D52" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G52" s="15" t="b">
         <v>0</v>
@@ -13457,15 +13453,15 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B53" s="21"/>
       <c r="D53" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E53" s="22"/>
       <c r="F53" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G53" s="15" t="b">
         <v>0</v>
@@ -13479,15 +13475,15 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B54" s="21"/>
       <c r="D54" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E54" s="22"/>
       <c r="F54" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G54" s="15" t="b">
         <v>0</v>
@@ -13811,7 +13807,7 @@
         <v>94</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -13852,13 +13848,13 @@
         <v>94</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G19" s="21">
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I19" t="s">
         <v>115</v>
@@ -13926,16 +13922,16 @@
     </row>
     <row r="20" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G20" s="21">
         <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I20" t="s">
         <v>3</v>
@@ -13997,7 +13993,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G21" s="21">
         <v>1</v>
@@ -14039,10 +14035,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>103</v>

--- a/projects/res_stock_pnw.xlsx
+++ b/projects/res_stock_pnw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8295" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8295" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="515">
   <si>
     <t>type</t>
   </si>
@@ -1564,6 +1564,21 @@
   </si>
   <si>
     <t>1.15.7-resstock</t>
+  </si>
+  <si>
+    <t>Set Insulation Pier &amp; Beam</t>
+  </si>
+  <si>
+    <t>insulation_pier_beam.txt</t>
+  </si>
+  <si>
+    <t>Insulation Pier &amp; Beam Sample Value</t>
+  </si>
+  <si>
+    <t>ServerDirectoryCleanup</t>
+  </si>
+  <si>
+    <t>Server Directory Cleanup</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1652,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1710,6 +1725,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3234,7 +3255,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3322,14 +3343,15 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1503">
@@ -5136,8 +5158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5196,7 +5218,7 @@
       <c r="A5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>509</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -5218,20 +5240,20 @@
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="47" t="s">
-        <v>138</v>
+      <c r="B7" s="46" t="s">
+        <v>147</v>
       </c>
       <c r="C7" s="23" t="str">
         <f>VLOOKUP($B7,instance_defs,5,FALSE)</f>
-        <v>Recommended for Server</v>
+        <v>Recommended for worker</v>
       </c>
       <c r="D7" s="23" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
-        <v>8 Cores with 80 GB</v>
+        <v>32 Cores with 320 GB</v>
       </c>
       <c r="E7" s="23" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
-        <v>$0.56/hour</v>
+        <v>$1.68/hour</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>149</v>
@@ -5273,7 +5295,7 @@
       </c>
       <c r="E9" s="23" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$5.6/hour</v>
+        <v>$6.72/hour</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>202</v>
@@ -5314,7 +5336,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -5762,10 +5784,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z159"/>
+  <dimension ref="A1:Z163"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5820,14 +5842,14 @@
       <c r="R1" s="30"/>
       <c r="S1" s="27"/>
       <c r="T1" s="27"/>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
     </row>
     <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -8778,11 +8800,11 @@
       <c r="X74" s="41"/>
     </row>
     <row r="75" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="40" t="b">
-        <v>1</v>
+      <c r="A75" s="47" t="b">
+        <v>0</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>292</v>
+        <v>510</v>
       </c>
       <c r="C75" s="40" t="s">
         <v>235</v>
@@ -8831,7 +8853,7 @@
       </c>
       <c r="H76" s="10"/>
       <c r="I76" s="10" t="s">
-        <v>293</v>
+        <v>511</v>
       </c>
       <c r="J76" s="10"/>
       <c r="K76" s="10"/>
@@ -8858,7 +8880,7 @@
       </c>
       <c r="C77" s="41"/>
       <c r="D77" s="41" t="s">
-        <v>291</v>
+        <v>512</v>
       </c>
       <c r="E77" s="41" t="s">
         <v>237</v>
@@ -8902,7 +8924,7 @@
         <v>1</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>445</v>
+        <v>292</v>
       </c>
       <c r="C78" s="40" t="s">
         <v>235</v>
@@ -8951,7 +8973,7 @@
       </c>
       <c r="H79" s="10"/>
       <c r="I79" s="10" t="s">
-        <v>447</v>
+        <v>293</v>
       </c>
       <c r="J79" s="10"/>
       <c r="K79" s="10"/>
@@ -8978,7 +9000,7 @@
       </c>
       <c r="C80" s="41"/>
       <c r="D80" s="41" t="s">
-        <v>446</v>
+        <v>291</v>
       </c>
       <c r="E80" s="41" t="s">
         <v>237</v>
@@ -9022,7 +9044,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>294</v>
+        <v>445</v>
       </c>
       <c r="C81" s="40" t="s">
         <v>235</v>
@@ -9071,7 +9093,7 @@
       </c>
       <c r="H82" s="10"/>
       <c r="I82" s="10" t="s">
-        <v>296</v>
+        <v>447</v>
       </c>
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
@@ -9098,7 +9120,7 @@
       </c>
       <c r="C83" s="41"/>
       <c r="D83" s="41" t="s">
-        <v>295</v>
+        <v>446</v>
       </c>
       <c r="E83" s="41" t="s">
         <v>237</v>
@@ -9142,7 +9164,7 @@
         <v>1</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C84" s="40" t="s">
         <v>235</v>
@@ -9191,7 +9213,7 @@
       </c>
       <c r="H85" s="10"/>
       <c r="I85" s="10" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
@@ -9218,7 +9240,7 @@
       </c>
       <c r="C86" s="41"/>
       <c r="D86" s="41" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E86" s="41" t="s">
         <v>237</v>
@@ -9262,7 +9284,7 @@
         <v>1</v>
       </c>
       <c r="B87" s="40" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C87" s="40" t="s">
         <v>235</v>
@@ -9311,7 +9333,7 @@
       </c>
       <c r="H88" s="10"/>
       <c r="I88" s="10" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
@@ -9338,7 +9360,7 @@
       </c>
       <c r="C89" s="41"/>
       <c r="D89" s="41" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E89" s="41" t="s">
         <v>237</v>
@@ -9382,7 +9404,7 @@
         <v>1</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C90" s="40" t="s">
         <v>235</v>
@@ -9431,7 +9453,7 @@
       </c>
       <c r="H91" s="10"/>
       <c r="I91" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
@@ -9458,7 +9480,7 @@
       </c>
       <c r="C92" s="41"/>
       <c r="D92" s="41" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E92" s="41" t="s">
         <v>237</v>
@@ -9502,7 +9524,7 @@
         <v>1</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C93" s="40" t="s">
         <v>235</v>
@@ -9551,7 +9573,7 @@
       </c>
       <c r="H94" s="10"/>
       <c r="I94" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
@@ -9578,7 +9600,7 @@
       </c>
       <c r="C95" s="41"/>
       <c r="D95" s="41" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E95" s="41" t="s">
         <v>237</v>
@@ -9622,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="B96" s="40" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C96" s="40" t="s">
         <v>235</v>
@@ -9671,7 +9693,7 @@
       </c>
       <c r="H97" s="10"/>
       <c r="I97" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J97" s="10"/>
       <c r="K97" s="10"/>
@@ -9698,7 +9720,7 @@
       </c>
       <c r="C98" s="41"/>
       <c r="D98" s="41" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E98" s="41" t="s">
         <v>237</v>
@@ -9742,7 +9764,7 @@
         <v>1</v>
       </c>
       <c r="B99" s="40" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C99" s="40" t="s">
         <v>235</v>
@@ -9791,7 +9813,7 @@
       </c>
       <c r="H100" s="10"/>
       <c r="I100" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
@@ -9818,7 +9840,7 @@
       </c>
       <c r="C101" s="41"/>
       <c r="D101" s="41" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E101" s="41" t="s">
         <v>237</v>
@@ -9862,7 +9884,7 @@
         <v>1</v>
       </c>
       <c r="B102" s="40" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C102" s="40" t="s">
         <v>235</v>
@@ -9911,7 +9933,7 @@
       </c>
       <c r="H103" s="10"/>
       <c r="I103" s="10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="J103" s="10"/>
       <c r="K103" s="10"/>
@@ -9938,7 +9960,7 @@
       </c>
       <c r="C104" s="41"/>
       <c r="D104" s="41" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E104" s="41" t="s">
         <v>237</v>
@@ -9982,7 +10004,7 @@
         <v>1</v>
       </c>
       <c r="B105" s="40" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C105" s="40" t="s">
         <v>235</v>
@@ -10031,7 +10053,7 @@
       </c>
       <c r="H106" s="10"/>
       <c r="I106" s="10" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
@@ -10058,7 +10080,7 @@
       </c>
       <c r="C107" s="41"/>
       <c r="D107" s="41" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E107" s="41" t="s">
         <v>237</v>
@@ -10102,7 +10124,7 @@
         <v>1</v>
       </c>
       <c r="B108" s="40" t="s">
-        <v>495</v>
+        <v>324</v>
       </c>
       <c r="C108" s="40" t="s">
         <v>235</v>
@@ -10151,7 +10173,7 @@
       </c>
       <c r="H109" s="10"/>
       <c r="I109" s="10" t="s">
-        <v>497</v>
+        <v>326</v>
       </c>
       <c r="J109" s="10"/>
       <c r="K109" s="10"/>
@@ -10178,7 +10200,7 @@
       </c>
       <c r="C110" s="41"/>
       <c r="D110" s="41" t="s">
-        <v>496</v>
+        <v>325</v>
       </c>
       <c r="E110" s="41" t="s">
         <v>237</v>
@@ -10222,7 +10244,7 @@
         <v>1</v>
       </c>
       <c r="B111" s="40" t="s">
-        <v>355</v>
+        <v>495</v>
       </c>
       <c r="C111" s="40" t="s">
         <v>235</v>
@@ -10271,7 +10293,7 @@
       </c>
       <c r="H112" s="10"/>
       <c r="I112" s="10" t="s">
-        <v>357</v>
+        <v>497</v>
       </c>
       <c r="J112" s="10"/>
       <c r="K112" s="10"/>
@@ -10298,7 +10320,7 @@
       </c>
       <c r="C113" s="41"/>
       <c r="D113" s="41" t="s">
-        <v>356</v>
+        <v>496</v>
       </c>
       <c r="E113" s="41" t="s">
         <v>237</v>
@@ -10342,7 +10364,7 @@
         <v>1</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="C114" s="40" t="s">
         <v>235</v>
@@ -10391,7 +10413,7 @@
       </c>
       <c r="H115" s="10"/>
       <c r="I115" s="10" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="J115" s="10"/>
       <c r="K115" s="10"/>
@@ -10418,7 +10440,7 @@
       </c>
       <c r="C116" s="41"/>
       <c r="D116" s="41" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="E116" s="41" t="s">
         <v>237</v>
@@ -10462,7 +10484,7 @@
         <v>1</v>
       </c>
       <c r="B117" s="40" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C117" s="40" t="s">
         <v>235</v>
@@ -10511,7 +10533,7 @@
       </c>
       <c r="H118" s="10"/>
       <c r="I118" s="10" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="J118" s="10"/>
       <c r="K118" s="10"/>
@@ -10538,7 +10560,7 @@
       </c>
       <c r="C119" s="41"/>
       <c r="D119" s="41" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E119" s="41" t="s">
         <v>237</v>
@@ -10582,7 +10604,7 @@
         <v>1</v>
       </c>
       <c r="B120" s="40" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C120" s="40" t="s">
         <v>235</v>
@@ -10631,7 +10653,7 @@
       </c>
       <c r="H121" s="10"/>
       <c r="I121" s="10" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J121" s="10"/>
       <c r="K121" s="10"/>
@@ -10658,7 +10680,7 @@
       </c>
       <c r="C122" s="41"/>
       <c r="D122" s="41" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E122" s="41" t="s">
         <v>237</v>
@@ -10702,7 +10724,7 @@
         <v>1</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C123" s="40" t="s">
         <v>235</v>
@@ -10751,7 +10773,7 @@
       </c>
       <c r="H124" s="10"/>
       <c r="I124" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J124" s="10"/>
       <c r="K124" s="10"/>
@@ -10778,7 +10800,7 @@
       </c>
       <c r="C125" s="41"/>
       <c r="D125" s="41" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E125" s="41" t="s">
         <v>237</v>
@@ -10822,7 +10844,7 @@
         <v>1</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C126" s="40" t="s">
         <v>235</v>
@@ -10871,7 +10893,7 @@
       </c>
       <c r="H127" s="10"/>
       <c r="I127" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J127" s="10"/>
       <c r="K127" s="10"/>
@@ -10898,7 +10920,7 @@
       </c>
       <c r="C128" s="41"/>
       <c r="D128" s="41" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E128" s="41" t="s">
         <v>237</v>
@@ -10942,7 +10964,7 @@
         <v>1</v>
       </c>
       <c r="B129" s="40" t="s">
-        <v>504</v>
+        <v>349</v>
       </c>
       <c r="C129" s="40" t="s">
         <v>235</v>
@@ -10991,7 +11013,7 @@
       </c>
       <c r="H130" s="10"/>
       <c r="I130" s="10" t="s">
-        <v>506</v>
+        <v>351</v>
       </c>
       <c r="J130" s="10"/>
       <c r="K130" s="10"/>
@@ -11018,7 +11040,7 @@
       </c>
       <c r="C131" s="41"/>
       <c r="D131" s="41" t="s">
-        <v>505</v>
+        <v>350</v>
       </c>
       <c r="E131" s="41" t="s">
         <v>237</v>
@@ -11062,7 +11084,7 @@
         <v>1</v>
       </c>
       <c r="B132" s="40" t="s">
-        <v>352</v>
+        <v>504</v>
       </c>
       <c r="C132" s="40" t="s">
         <v>235</v>
@@ -11111,7 +11133,7 @@
       </c>
       <c r="H133" s="10"/>
       <c r="I133" s="10" t="s">
-        <v>354</v>
+        <v>506</v>
       </c>
       <c r="J133" s="10"/>
       <c r="K133" s="10"/>
@@ -11138,7 +11160,7 @@
       </c>
       <c r="C134" s="41"/>
       <c r="D134" s="41" t="s">
-        <v>353</v>
+        <v>505</v>
       </c>
       <c r="E134" s="41" t="s">
         <v>237</v>
@@ -11182,7 +11204,7 @@
         <v>1</v>
       </c>
       <c r="B135" s="40" t="s">
-        <v>450</v>
+        <v>352</v>
       </c>
       <c r="C135" s="40" t="s">
         <v>235</v>
@@ -11231,7 +11253,7 @@
       </c>
       <c r="H136" s="10"/>
       <c r="I136" s="10" t="s">
-        <v>455</v>
+        <v>354</v>
       </c>
       <c r="J136" s="10"/>
       <c r="K136" s="10"/>
@@ -11258,7 +11280,7 @@
       </c>
       <c r="C137" s="41"/>
       <c r="D137" s="41" t="s">
-        <v>451</v>
+        <v>353</v>
       </c>
       <c r="E137" s="41" t="s">
         <v>237</v>
@@ -11302,7 +11324,7 @@
         <v>1</v>
       </c>
       <c r="B138" s="40" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="C138" s="40" t="s">
         <v>235</v>
@@ -11351,7 +11373,7 @@
       </c>
       <c r="H139" s="10"/>
       <c r="I139" s="10" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="J139" s="10"/>
       <c r="K139" s="10"/>
@@ -11378,7 +11400,7 @@
       </c>
       <c r="C140" s="41"/>
       <c r="D140" s="41" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="E140" s="41" t="s">
         <v>237</v>
@@ -11422,7 +11444,7 @@
         <v>1</v>
       </c>
       <c r="B141" s="40" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C141" s="40" t="s">
         <v>235</v>
@@ -11471,7 +11493,7 @@
       </c>
       <c r="H142" s="10"/>
       <c r="I142" s="10" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J142" s="10"/>
       <c r="K142" s="10"/>
@@ -11498,7 +11520,7 @@
       </c>
       <c r="C143" s="41"/>
       <c r="D143" s="41" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E143" s="41" t="s">
         <v>237</v>
@@ -11542,7 +11564,7 @@
         <v>1</v>
       </c>
       <c r="B144" s="40" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="C144" s="40" t="s">
         <v>235</v>
@@ -11591,7 +11613,7 @@
       </c>
       <c r="H145" s="10"/>
       <c r="I145" s="10" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="J145" s="10"/>
       <c r="K145" s="10"/>
@@ -11618,7 +11640,7 @@
       </c>
       <c r="C146" s="41"/>
       <c r="D146" s="41" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="E146" s="41" t="s">
         <v>237</v>
@@ -11662,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="B147" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C147" s="40" t="s">
         <v>235</v>
@@ -11711,7 +11733,7 @@
       </c>
       <c r="H148" s="10"/>
       <c r="I148" s="10" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J148" s="10"/>
       <c r="K148" s="10"/>
@@ -11738,7 +11760,7 @@
       </c>
       <c r="C149" s="41"/>
       <c r="D149" s="41" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E149" s="41" t="s">
         <v>237</v>
@@ -11782,7 +11804,7 @@
         <v>1</v>
       </c>
       <c r="B150" s="40" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="C150" s="40" t="s">
         <v>235</v>
@@ -11831,7 +11853,7 @@
       </c>
       <c r="H151" s="10"/>
       <c r="I151" s="10" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="J151" s="10"/>
       <c r="K151" s="10"/>
@@ -11858,7 +11880,7 @@
       </c>
       <c r="C152" s="41"/>
       <c r="D152" s="41" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="E152" s="41" t="s">
         <v>237</v>
@@ -11902,7 +11924,7 @@
         <v>1</v>
       </c>
       <c r="B153" s="40" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="C153" s="40" t="s">
         <v>235</v>
@@ -11951,7 +11973,7 @@
       </c>
       <c r="H154" s="10"/>
       <c r="I154" s="10" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="J154" s="10"/>
       <c r="K154" s="10"/>
@@ -11978,7 +12000,7 @@
       </c>
       <c r="C155" s="41"/>
       <c r="D155" s="41" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="E155" s="41" t="s">
         <v>237</v>
@@ -12022,7 +12044,7 @@
         <v>1</v>
       </c>
       <c r="B156" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C156" s="40" t="s">
         <v>235</v>
@@ -12071,7 +12093,7 @@
       </c>
       <c r="H157" s="10"/>
       <c r="I157" s="10" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="J157" s="10"/>
       <c r="K157" s="10"/>
@@ -12098,7 +12120,7 @@
       </c>
       <c r="C158" s="41"/>
       <c r="D158" s="41" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E158" s="41" t="s">
         <v>237</v>
@@ -12137,41 +12159,197 @@
       <c r="W158" s="41"/>
       <c r="X158" s="41"/>
     </row>
-    <row r="159" spans="1:26" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="42" t="b">
+    <row r="159" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="B159" s="42" t="s">
+      <c r="B159" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="C159" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="D159" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="E159" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F159" s="40"/>
+      <c r="G159" s="40"/>
+      <c r="H159" s="40"/>
+      <c r="I159" s="40"/>
+      <c r="J159" s="40"/>
+      <c r="K159" s="40"/>
+      <c r="L159" s="40"/>
+      <c r="M159" s="40"/>
+      <c r="N159" s="40"/>
+      <c r="O159" s="40"/>
+      <c r="P159" s="40"/>
+      <c r="Q159" s="40"/>
+      <c r="R159" s="40"/>
+      <c r="S159" s="40"/>
+      <c r="T159" s="40"/>
+      <c r="U159" s="40"/>
+      <c r="V159" s="40"/>
+      <c r="W159" s="40"/>
+      <c r="X159" s="40"/>
+    </row>
+    <row r="160" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="10"/>
+      <c r="B160" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E160" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="H160" s="10"/>
+      <c r="I160" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="J160" s="10"/>
+      <c r="K160" s="10"/>
+      <c r="L160" s="10"/>
+      <c r="M160" s="10"/>
+      <c r="N160" s="10"/>
+      <c r="O160" s="10"/>
+      <c r="P160" s="10"/>
+      <c r="Q160" s="10"/>
+      <c r="R160" s="10"/>
+      <c r="S160" s="10"/>
+      <c r="T160" s="10"/>
+      <c r="U160" s="10"/>
+      <c r="V160" s="10"/>
+      <c r="W160" s="10"/>
+      <c r="X160" s="10"/>
+      <c r="Y160" s="15"/>
+      <c r="Z160" s="15"/>
+    </row>
+    <row r="161" spans="1:24" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="41"/>
+      <c r="B161" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C161" s="41"/>
+      <c r="D161" s="41" t="s">
+        <v>463</v>
+      </c>
+      <c r="E161" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="F161" s="41"/>
+      <c r="G161" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="H161" s="41"/>
+      <c r="I161" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="J161" s="41"/>
+      <c r="K161" s="41">
+        <v>0</v>
+      </c>
+      <c r="L161" s="41">
+        <v>1</v>
+      </c>
+      <c r="M161" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="N161" s="41">
+        <v>0.1666667</v>
+      </c>
+      <c r="O161" s="41"/>
+      <c r="P161" s="41"/>
+      <c r="Q161" s="41"/>
+      <c r="R161" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="S161" s="41"/>
+      <c r="T161" s="41"/>
+      <c r="U161" s="41"/>
+      <c r="V161" s="41"/>
+      <c r="W161" s="41"/>
+      <c r="X161" s="41"/>
+    </row>
+    <row r="162" spans="1:24" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="B162" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="C159" s="42" t="s">
+      <c r="C162" s="42" t="s">
         <v>329</v>
       </c>
-      <c r="D159" s="42" t="s">
+      <c r="D162" s="42" t="s">
         <v>329</v>
       </c>
-      <c r="E159" s="42" t="s">
+      <c r="E162" s="42" t="s">
         <v>327</v>
       </c>
-      <c r="F159" s="42"/>
-      <c r="G159" s="42"/>
-      <c r="H159" s="43"/>
-      <c r="I159" s="43"/>
-      <c r="J159" s="42"/>
-      <c r="K159" s="42"/>
-      <c r="L159" s="42"/>
-      <c r="M159" s="42"/>
-      <c r="N159" s="42"/>
-      <c r="O159" s="42"/>
-      <c r="P159" s="42"/>
-      <c r="Q159" s="42"/>
-      <c r="R159" s="42"/>
-      <c r="S159" s="42"/>
-      <c r="T159" s="42"/>
-      <c r="U159" s="42"/>
-      <c r="V159" s="42"/>
-      <c r="W159" s="42"/>
-      <c r="X159" s="42"/>
+      <c r="F162" s="42"/>
+      <c r="G162" s="42"/>
+      <c r="H162" s="43"/>
+      <c r="I162" s="43"/>
+      <c r="J162" s="42"/>
+      <c r="K162" s="42"/>
+      <c r="L162" s="42"/>
+      <c r="M162" s="42"/>
+      <c r="N162" s="42"/>
+      <c r="O162" s="42"/>
+      <c r="P162" s="42"/>
+      <c r="Q162" s="42"/>
+      <c r="R162" s="42"/>
+      <c r="S162" s="42"/>
+      <c r="T162" s="42"/>
+      <c r="U162" s="42"/>
+      <c r="V162" s="42"/>
+      <c r="W162" s="42"/>
+      <c r="X162" s="42"/>
+    </row>
+    <row r="163" spans="1:24" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="B163" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="C163" s="42" t="s">
+        <v>513</v>
+      </c>
+      <c r="D163" s="42" t="s">
+        <v>513</v>
+      </c>
+      <c r="E163" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="F163" s="42"/>
+      <c r="G163" s="42"/>
+      <c r="H163" s="43"/>
+      <c r="I163" s="43"/>
+      <c r="J163" s="42"/>
+      <c r="K163" s="42"/>
+      <c r="L163" s="42"/>
+      <c r="M163" s="42"/>
+      <c r="N163" s="42"/>
+      <c r="O163" s="42"/>
+      <c r="P163" s="42"/>
+      <c r="Q163" s="42"/>
+      <c r="R163" s="42"/>
+      <c r="S163" s="42"/>
+      <c r="T163" s="42"/>
+      <c r="U163" s="42"/>
+      <c r="V163" s="42"/>
+      <c r="W163" s="42"/>
+      <c r="X163" s="42"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA3"/>
@@ -12193,8 +12371,8 @@
   <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
